--- a/클러스터링 평가 점수.xlsx
+++ b/클러스터링 평가 점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_practice\DL_project\gwangjin_contest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_practice\DL_project\gwangjin_contest_git\Project_Seoul_Gwangjin_gu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226DBD51-AC01-48D2-9F6B-E664C6CCFFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADCC27E-E2B3-4875-86CB-C2A39543D28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{6722E8FC-F9DA-4744-9922-698690FC8169}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>실루엣 score</t>
   </si>
@@ -239,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,12 +262,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -317,10 +311,34 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -331,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,38 +359,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,7 +1083,7 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1085,765 +1109,786 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:23" ht="32" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>0.681671261787414</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>497966.08760000003</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="32" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>0.42496082186698902</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>213897.09330000001</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:23" ht="32" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>0.616732537746429</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>1.9E-3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>146216.05710000001</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>0.67642992734909002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>2.8E-3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>314404.14529999997</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>0.62549453973770097</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>165929.35699999999</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>0.63089925050735396</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>147207.73980000001</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:23" ht="32" x14ac:dyDescent="0.45">
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>0.73951796199966802</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>0.12889999999999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>123077.4325</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:23" ht="32" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>0.75513802051543599</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>311302.77140000003</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10" t="s">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
     </row>
     <row r="13" spans="1:23" ht="32" x14ac:dyDescent="0.45">
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>0.239439791895773</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>0.45090000000000002</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>5373.0461999999998</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
     </row>
     <row r="14" spans="1:23" ht="32" x14ac:dyDescent="0.45">
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>0.38695497809586699</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="7">
         <v>0.2099</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <v>10257.3902</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:23" ht="32" x14ac:dyDescent="0.45">
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>0.42064850826976102</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>0.22189999999999999</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>13887.0877</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B17" s="11" t="s">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="7">
         <v>0.41883503313215398</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <v>0.35049999999999998</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <v>16416.273399999998</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="8">
         <v>0.42213112431715299</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="8">
         <v>0.35049999999999998</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="8">
         <v>16589.203000000001</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12" t="s">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
     </row>
     <row r="33" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
     </row>
     <row r="34" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
     </row>
     <row r="35" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
     </row>
     <row r="36" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
